--- a/Avileen Mukherjee_SodaSales_ Assignment.xlsx
+++ b/Avileen Mukherjee_SodaSales_ Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rainman Consulting Assessment Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25DE2CE-6316-45B7-86B8-5420B281E026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB9175-FED7-4A4F-B010-433A0A34B04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MMM Data" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="166">
   <si>
     <t>Price</t>
   </si>
@@ -576,9 +576,6 @@
     </r>
   </si>
   <si>
-    <t>Ans ) For every ₹1 increase in promotions spending, Sales Volume increases by 55.95 litres (on average).This means promotions have a positive effect on sales.</t>
-  </si>
-  <si>
     <t>Q 4)What is the correlation between price and volume sales?</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
   </si>
   <si>
     <t>Q5 )What is the correlation between sales volume and promotions?</t>
-  </si>
-  <si>
-    <t>Answer - For every ₹1 increase in promotions spending, Sales Volume increases by 55.95 litres (on average).This means promotions have a positive effect on sales.</t>
   </si>
   <si>
     <t>No Graph</t>
@@ -26071,7 +26065,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -28093,17 +28087,17 @@
     <row r="2" spans="1:38" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="127" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="127"/>
       <c r="T2" s="124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U2" s="125"/>
       <c r="V2" s="125"/>
       <c r="W2" s="126"/>
       <c r="AF2" s="124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG2" s="125"/>
       <c r="AH2" s="125"/>
@@ -30007,10 +30001,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AD28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30119,28 +30113,28 @@
         <v>0</v>
       </c>
       <c r="S30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="U30" s="12" t="s">
+      <c r="W30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE30" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="X30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD30" s="12" t="s">
+      <c r="AF30" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="AE30" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF30" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
@@ -30443,10 +30437,10 @@
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AA34" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD34" s="10">
         <v>4</v>
@@ -30526,7 +30520,7 @@
         <v>-1268923.8721226552</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Z35" s="10">
         <v>1</v>
@@ -30610,7 +30604,7 @@
         <v>-1229535.5075480032</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z36" s="130">
         <v>0.12980409565670609</v>
@@ -32302,7 +32296,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -34219,7 +34213,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
@@ -37716,7 +37710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69E924-7585-4BD1-B3BB-E40748154E34}">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:U51"/>
     </sheetView>
   </sheetViews>
@@ -41577,8 +41571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C208D4-A9FE-4319-AF13-1DB8899CAB84}">
   <dimension ref="A1:AG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41816,9 +41810,7 @@
       <c r="L20" s="93"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
-        <v>146</v>
-      </c>
+      <c r="A37" s="103"/>
       <c r="B37" s="103"/>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
@@ -41874,7 +41866,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="24" t="s">
@@ -41901,7 +41893,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="129" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="129"/>
       <c r="C42" s="129"/>
@@ -42217,7 +42209,7 @@
     </row>
     <row r="83" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" s="68"/>
       <c r="C83" s="68"/>
@@ -42239,18 +42231,18 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="128" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B87" s="128"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="129"/>
       <c r="C88" s="129"/>
@@ -42263,7 +42255,7 @@
     </row>
     <row r="90" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="68"/>
       <c r="C90" s="68"/>
@@ -42277,12 +42269,12 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="103" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -45284,9 +45276,7 @@
       <c r="E1" s="87"/>
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="101" t="s">
-        <v>140</v>
-      </c>
+      <c r="B3" s="101"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
@@ -45356,7 +45346,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -45373,7 +45363,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -45387,7 +45377,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -45401,7 +45391,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -45415,7 +45405,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -45429,7 +45419,7 @@
     </row>
     <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="109"/>
       <c r="C6" s="109"/>
@@ -45438,7 +45428,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -48048,7 +48038,7 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B65" s="111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="111"/>
       <c r="D65" s="111"/>
@@ -48139,7 +48129,7 @@
         <v>695.56184563294505</v>
       </c>
       <c r="K72" s="104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -48544,7 +48534,7 @@
         <v>4.0961435943636677E-6</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
@@ -48580,7 +48570,7 @@
         <v>7.2389335499331808E-5</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
@@ -48616,7 +48606,7 @@
         <v>0.38412692150165784</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
